--- a/emotionTargetDetection/risultatiRegoleUnificati/TargetRiconosciutiDaRegole.xlsx
+++ b/emotionTargetDetection/risultatiRegoleUnificati/TargetRiconosciutiDaRegole.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="2245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="2256">
   <si>
     <t>ID</t>
   </si>
@@ -6834,6 +6834,39 @@
   </si>
   <si>
     <t xml:space="preserve"> submodules</t>
+  </si>
+  <si>
+    <t>idea, array</t>
+  </si>
+  <si>
+    <t>mistake, mistake</t>
+  </si>
+  <si>
+    <t>performance, performance</t>
+  </si>
+  <si>
+    <t>performance, performance, performance</t>
+  </si>
+  <si>
+    <t>performance, performance, performance, performance</t>
+  </si>
+  <si>
+    <t>hack, workaround</t>
+  </si>
+  <si>
+    <t>bugs, bugs</t>
+  </si>
+  <si>
+    <t>part, part</t>
+  </si>
+  <si>
+    <t>part, part, part</t>
+  </si>
+  <si>
+    <t>part, part, part, part</t>
+  </si>
+  <si>
+    <t>people, people</t>
   </si>
 </sst>
 </file>
@@ -7897,7 +7930,9 @@
       <c r="D27" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>2073</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -10465,7 +10500,7 @@
         <v>369</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>1860</v>
+        <v>2245</v>
       </c>
       <c r="F131" s="16" t="s">
         <v>223</v>
@@ -10843,7 +10878,7 @@
         <v>1878</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>2120</v>
+        <v>2078</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="3"/>
@@ -11809,7 +11844,7 @@
         <v>130</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1863</v>
+        <v>2246</v>
       </c>
       <c r="F187" s="16" t="s">
         <v>2075</v>
@@ -11961,7 +11996,9 @@
       <c r="D194" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="E194" s="16"/>
+      <c r="E194" s="16" t="s">
+        <v>1380</v>
+      </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -13629,7 +13666,9 @@
       <c r="D260" s="25" t="s">
         <v>1982</v>
       </c>
-      <c r="E260" s="16"/>
+      <c r="E260" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
@@ -14083,7 +14122,7 @@
         <v>746</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1864</v>
+        <v>2249</v>
       </c>
       <c r="F278" s="16" t="s">
         <v>2078</v>
@@ -14262,7 +14301,7 @@
         <v>1985</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>1865</v>
+        <v>2250</v>
       </c>
       <c r="F285" s="16" t="s">
         <v>2075</v>
@@ -14527,7 +14566,9 @@
       <c r="D295" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E295" s="16"/>
+      <c r="E295" s="16" t="s">
+        <v>2251</v>
+      </c>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
@@ -14931,7 +14972,7 @@
         <v>826</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>2127</v>
+        <v>2254</v>
       </c>
       <c r="F311" s="16" t="s">
         <v>2095</v>
@@ -15577,7 +15618,7 @@
         <v>891</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>2100</v>
+        <v>2075</v>
       </c>
       <c r="F335" s="16" t="s">
         <v>2075</v>
@@ -16147,7 +16188,7 @@
         <v>1882</v>
       </c>
       <c r="E357" s="18" t="s">
-        <v>2128</v>
+        <v>2255</v>
       </c>
       <c r="F357" s="16" t="s">
         <v>2102</v>
